--- a/team_specific_matrix/Arizona_B.xlsx
+++ b/team_specific_matrix/Arizona_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1415929203539823</v>
+        <v>0.1850220264317181</v>
       </c>
       <c r="C2">
-        <v>0.6371681415929203</v>
+        <v>0.5682819383259912</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.004405286343612335</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1061946902654867</v>
+        <v>0.13215859030837</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1150442477876106</v>
+        <v>0.1101321585903084</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.01503759398496241</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04054054054054054</v>
+        <v>0.03759398496240601</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7567567567567568</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2027027027027027</v>
+        <v>0.2330827067669173</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2142857142857143</v>
+        <v>0.1379310344827586</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5714285714285714</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2142857142857143</v>
+        <v>0.3448275862068966</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05660377358490566</v>
+        <v>0.05150214592274678</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.009433962264150943</v>
+        <v>0.008583690987124463</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0660377358490566</v>
+        <v>0.07725321888412018</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2452830188679245</v>
+        <v>0.2575107296137339</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.009433962264150943</v>
+        <v>0.008583690987124463</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1226415094339623</v>
+        <v>0.1502145922746781</v>
       </c>
       <c r="R6">
-        <v>0.08490566037735849</v>
+        <v>0.07725321888412018</v>
       </c>
       <c r="S6">
-        <v>0.4056603773584906</v>
+        <v>0.369098712446352</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1122448979591837</v>
+        <v>0.1014492753623188</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.01449275362318841</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.09183673469387756</v>
+        <v>0.07729468599033816</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.09183673469387756</v>
+        <v>0.106280193236715</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.04081632653061224</v>
+        <v>0.03381642512077294</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1224489795918367</v>
+        <v>0.1207729468599034</v>
       </c>
       <c r="R7">
-        <v>0.03061224489795918</v>
+        <v>0.06280193236714976</v>
       </c>
       <c r="S7">
-        <v>0.5102040816326531</v>
+        <v>0.4830917874396135</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07725321888412018</v>
+        <v>0.0640495867768595</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0128755364806867</v>
+        <v>0.01446280991735537</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06866952789699571</v>
+        <v>0.08264462809917356</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1072961373390558</v>
+        <v>0.09917355371900827</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01716738197424893</v>
+        <v>0.01859504132231405</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2017167381974249</v>
+        <v>0.1652892561983471</v>
       </c>
       <c r="R8">
-        <v>0.1244635193133047</v>
+        <v>0.121900826446281</v>
       </c>
       <c r="S8">
-        <v>0.3905579399141631</v>
+        <v>0.4338842975206612</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.103448275862069</v>
+        <v>0.08670520231213873</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01149425287356322</v>
+        <v>0.0115606936416185</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.03448275862068965</v>
+        <v>0.04046242774566474</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1379310344827586</v>
+        <v>0.09826589595375723</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>0.01734104046242774</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1724137931034483</v>
+        <v>0.1734104046242775</v>
       </c>
       <c r="R9">
-        <v>0.06896551724137931</v>
+        <v>0.07514450867052024</v>
       </c>
       <c r="S9">
-        <v>0.4712643678160919</v>
+        <v>0.4971098265895953</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.07692307692307693</v>
+        <v>0.081145584725537</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01508295625942685</v>
+        <v>0.01352426412092283</v>
       </c>
       <c r="E10">
-        <v>0.001508295625942685</v>
+        <v>0.001591089896579157</v>
       </c>
       <c r="F10">
-        <v>0.05882352941176471</v>
+        <v>0.06682577565632458</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1191553544494721</v>
+        <v>0.1121718377088305</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01357466063348416</v>
+        <v>0.01352426412092283</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2232277526395174</v>
+        <v>0.2171837708830549</v>
       </c>
       <c r="R10">
-        <v>0.07239819004524888</v>
+        <v>0.07159904534606205</v>
       </c>
       <c r="S10">
-        <v>0.4193061840120664</v>
+        <v>0.4224343675417661</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1363636363636364</v>
+        <v>0.1335227272727273</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1306818181818182</v>
+        <v>0.1193181818181818</v>
       </c>
       <c r="K11">
-        <v>0.2386363636363636</v>
+        <v>0.2159090909090909</v>
       </c>
       <c r="L11">
-        <v>0.4772727272727273</v>
+        <v>0.5198863636363636</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01704545454545454</v>
+        <v>0.01136363636363636</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.686046511627907</v>
+        <v>0.6914893617021277</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2674418604651163</v>
+        <v>0.2393617021276596</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.005319148936170213</v>
       </c>
       <c r="L12">
-        <v>0.02325581395348837</v>
+        <v>0.01063829787234043</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02325581395348837</v>
+        <v>0.05319148936170213</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.8421052631578947</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1578947368421053</v>
+        <v>0.2444444444444444</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>0.04444444444444445</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01941747572815534</v>
+        <v>0.01951219512195122</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1747572815533981</v>
+        <v>0.1707317073170732</v>
       </c>
       <c r="I15">
-        <v>0.07766990291262135</v>
+        <v>0.07804878048780488</v>
       </c>
       <c r="J15">
-        <v>0.3495145631067961</v>
+        <v>0.3170731707317073</v>
       </c>
       <c r="K15">
-        <v>0.07766990291262135</v>
+        <v>0.07317073170731707</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.009708737864077669</v>
+        <v>0.00975609756097561</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.004878048780487805</v>
       </c>
       <c r="O15">
-        <v>0.02912621359223301</v>
+        <v>0.06341463414634146</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2621359223300971</v>
+        <v>0.2634146341463415</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01351351351351351</v>
+        <v>0.007407407407407408</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1351351351351351</v>
+        <v>0.1777777777777778</v>
       </c>
       <c r="I16">
-        <v>0.04054054054054054</v>
+        <v>0.05185185185185185</v>
       </c>
       <c r="J16">
-        <v>0.4324324324324325</v>
+        <v>0.3925925925925926</v>
       </c>
       <c r="K16">
-        <v>0.1081081081081081</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01351351351351351</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.1081081081081081</v>
+        <v>0.08148148148148149</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1486486486486487</v>
+        <v>0.1555555555555556</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.004273504273504274</v>
+        <v>0.009111617312072893</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1581196581196581</v>
+        <v>0.1913439635535308</v>
       </c>
       <c r="I17">
-        <v>0.1068376068376068</v>
+        <v>0.1002277904328018</v>
       </c>
       <c r="J17">
-        <v>0.4658119658119658</v>
+        <v>0.4578587699316629</v>
       </c>
       <c r="K17">
-        <v>0.09829059829059829</v>
+        <v>0.07972665148063782</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02136752136752137</v>
+        <v>0.01366742596810934</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.04700854700854701</v>
+        <v>0.05466970387243736</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09829059829059829</v>
+        <v>0.09339407744874716</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01063829787234043</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2553191489361702</v>
+        <v>0.2263157894736842</v>
       </c>
       <c r="I18">
-        <v>0.06382978723404255</v>
+        <v>0.05789473684210526</v>
       </c>
       <c r="J18">
-        <v>0.4361702127659575</v>
+        <v>0.4105263157894737</v>
       </c>
       <c r="K18">
-        <v>0.09574468085106383</v>
+        <v>0.1</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.005263157894736842</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06382978723404255</v>
+        <v>0.07368421052631578</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.07446808510638298</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02205882352941177</v>
+        <v>0.02027516292541636</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2117647058823529</v>
+        <v>0.2179580014482259</v>
       </c>
       <c r="I19">
-        <v>0.06617647058823529</v>
+        <v>0.06951484431571325</v>
       </c>
       <c r="J19">
-        <v>0.3691176470588236</v>
+        <v>0.3482983345401883</v>
       </c>
       <c r="K19">
-        <v>0.1279411764705882</v>
+        <v>0.1383055756698045</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01911764705882353</v>
+        <v>0.02534395365677046</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.06470588235294118</v>
+        <v>0.05865314989138305</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1191176470588235</v>
+        <v>0.1216509775524982</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Arizona_B.xlsx
+++ b/team_specific_matrix/Arizona_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1850220264317181</v>
+        <v>0.1853448275862069</v>
       </c>
       <c r="C2">
-        <v>0.5682819383259912</v>
+        <v>0.5689655172413793</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.004405286343612335</v>
+        <v>0.004310344827586207</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.13215859030837</v>
+        <v>0.1336206896551724</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1101321585903084</v>
+        <v>0.1077586206896552</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.01503759398496241</v>
+        <v>0.0218978102189781</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03759398496240601</v>
+        <v>0.0364963503649635</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7142857142857143</v>
+        <v>0.7153284671532847</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2330827067669173</v>
+        <v>0.2262773722627737</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1379310344827586</v>
+        <v>0.125</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5172413793103449</v>
+        <v>0.53125</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3448275862068966</v>
+        <v>0.34375</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05150214592274678</v>
+        <v>0.05</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.008583690987124463</v>
+        <v>0.008333333333333333</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.07725321888412018</v>
+        <v>0.075</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2575107296137339</v>
+        <v>0.2583333333333334</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.008583690987124463</v>
+        <v>0.008333333333333333</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1502145922746781</v>
+        <v>0.15</v>
       </c>
       <c r="R6">
-        <v>0.07725321888412018</v>
+        <v>0.075</v>
       </c>
       <c r="S6">
-        <v>0.369098712446352</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1014492753623188</v>
+        <v>0.09905660377358491</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01449275362318841</v>
+        <v>0.01415094339622642</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.07729468599033816</v>
+        <v>0.07547169811320754</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.106280193236715</v>
+        <v>0.1084905660377359</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03381642512077294</v>
+        <v>0.0330188679245283</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1207729468599034</v>
+        <v>0.1226415094339623</v>
       </c>
       <c r="R7">
-        <v>0.06280193236714976</v>
+        <v>0.06132075471698113</v>
       </c>
       <c r="S7">
-        <v>0.4830917874396135</v>
+        <v>0.4858490566037736</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0640495867768595</v>
+        <v>0.06349206349206349</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01446280991735537</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.08264462809917356</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09917355371900827</v>
+        <v>0.1051587301587302</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01859504132231405</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1652892561983471</v>
+        <v>0.1646825396825397</v>
       </c>
       <c r="R8">
-        <v>0.121900826446281</v>
+        <v>0.1170634920634921</v>
       </c>
       <c r="S8">
-        <v>0.4338842975206612</v>
+        <v>0.4325396825396826</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08670520231213873</v>
+        <v>0.08379888268156424</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0115606936416185</v>
+        <v>0.0111731843575419</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.04046242774566474</v>
+        <v>0.03910614525139665</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09826589595375723</v>
+        <v>0.106145251396648</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01734104046242774</v>
+        <v>0.01675977653631285</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1734104046242775</v>
+        <v>0.1843575418994413</v>
       </c>
       <c r="R9">
-        <v>0.07514450867052024</v>
+        <v>0.07262569832402235</v>
       </c>
       <c r="S9">
-        <v>0.4971098265895953</v>
+        <v>0.4860335195530726</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.081145584725537</v>
+        <v>0.08076923076923077</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01352426412092283</v>
+        <v>0.01461538461538462</v>
       </c>
       <c r="E10">
-        <v>0.001591089896579157</v>
+        <v>0.001538461538461538</v>
       </c>
       <c r="F10">
-        <v>0.06682577565632458</v>
+        <v>0.06615384615384616</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1121718377088305</v>
+        <v>0.1130769230769231</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01352426412092283</v>
+        <v>0.01384615384615385</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2171837708830549</v>
+        <v>0.2169230769230769</v>
       </c>
       <c r="R10">
-        <v>0.07159904534606205</v>
+        <v>0.07153846153846154</v>
       </c>
       <c r="S10">
-        <v>0.4224343675417661</v>
+        <v>0.4215384615384615</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1335227272727273</v>
+        <v>0.1320224719101123</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1193181818181818</v>
+        <v>0.1179775280898876</v>
       </c>
       <c r="K11">
-        <v>0.2159090909090909</v>
+        <v>0.2134831460674157</v>
       </c>
       <c r="L11">
-        <v>0.5198863636363636</v>
+        <v>0.5252808988764045</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01136363636363636</v>
+        <v>0.01123595505617977</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6914893617021277</v>
+        <v>0.6927083333333334</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2393617021276596</v>
+        <v>0.2395833333333333</v>
       </c>
       <c r="K12">
-        <v>0.005319148936170213</v>
+        <v>0.005208333333333333</v>
       </c>
       <c r="L12">
-        <v>0.01063829787234043</v>
+        <v>0.01041666666666667</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.05319148936170213</v>
+        <v>0.05208333333333334</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7111111111111111</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2444444444444444</v>
+        <v>0.25</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.04444444444444445</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01951219512195122</v>
+        <v>0.02358490566037736</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1707317073170732</v>
+        <v>0.1745283018867924</v>
       </c>
       <c r="I15">
-        <v>0.07804878048780488</v>
+        <v>0.07547169811320754</v>
       </c>
       <c r="J15">
-        <v>0.3170731707317073</v>
+        <v>0.3113207547169811</v>
       </c>
       <c r="K15">
-        <v>0.07317073170731707</v>
+        <v>0.07547169811320754</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.00975609756097561</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="N15">
-        <v>0.004878048780487805</v>
+        <v>0.004716981132075472</v>
       </c>
       <c r="O15">
-        <v>0.06341463414634146</v>
+        <v>0.06132075471698113</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2634146341463415</v>
+        <v>0.2641509433962264</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.007407407407407408</v>
+        <v>0.007092198581560284</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1777777777777778</v>
+        <v>0.1702127659574468</v>
       </c>
       <c r="I16">
-        <v>0.05185185185185185</v>
+        <v>0.04964539007092199</v>
       </c>
       <c r="J16">
-        <v>0.3925925925925926</v>
+        <v>0.4042553191489361</v>
       </c>
       <c r="K16">
-        <v>0.1111111111111111</v>
+        <v>0.1063829787234043</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02222222222222222</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.08148148148148149</v>
+        <v>0.0851063829787234</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1555555555555556</v>
+        <v>0.1560283687943262</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.009111617312072893</v>
+        <v>0.008771929824561403</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1913439635535308</v>
+        <v>0.1929824561403509</v>
       </c>
       <c r="I17">
-        <v>0.1002277904328018</v>
+        <v>0.1008771929824561</v>
       </c>
       <c r="J17">
-        <v>0.4578587699316629</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="K17">
-        <v>0.07972665148063782</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01366742596810934</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05466970387243736</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09339407744874716</v>
+        <v>0.09429824561403509</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02631578947368421</v>
+        <v>0.02590673575129534</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2263157894736842</v>
+        <v>0.2227979274611399</v>
       </c>
       <c r="I18">
-        <v>0.05789473684210526</v>
+        <v>0.05699481865284974</v>
       </c>
       <c r="J18">
-        <v>0.4105263157894737</v>
+        <v>0.4145077720207254</v>
       </c>
       <c r="K18">
-        <v>0.1</v>
+        <v>0.09844559585492228</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.005263157894736842</v>
+        <v>0.005181347150259068</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.07368421052631578</v>
+        <v>0.07772020725388601</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1</v>
+        <v>0.09844559585492228</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02027516292541636</v>
+        <v>0.02033660589060308</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2179580014482259</v>
+        <v>0.2208976157082749</v>
       </c>
       <c r="I19">
-        <v>0.06951484431571325</v>
+        <v>0.07012622720897616</v>
       </c>
       <c r="J19">
-        <v>0.3482983345401883</v>
+        <v>0.3450210378681627</v>
       </c>
       <c r="K19">
-        <v>0.1383055756698045</v>
+        <v>0.135343618513324</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02534395365677046</v>
+        <v>0.02664796633941094</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.05865314989138305</v>
+        <v>0.05890603085553997</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1216509775524982</v>
+        <v>0.1227208976157083</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Arizona_B.xlsx
+++ b/team_specific_matrix/Arizona_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1853448275862069</v>
+        <v>0.1876208897485493</v>
       </c>
       <c r="C2">
-        <v>0.5689655172413793</v>
+        <v>0.5570599613152805</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.004310344827586207</v>
+        <v>0.007736943907156673</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1336206896551724</v>
+        <v>0.1411992263056093</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1077586206896552</v>
+        <v>0.1063829787234043</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.01628664495114007</v>
       </c>
       <c r="C3">
-        <v>0.0218978102189781</v>
+        <v>0.03908794788273615</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0364963503649635</v>
+        <v>0.03583061889250815</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7153284671532847</v>
+        <v>0.6677524429967426</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2262773722627737</v>
+        <v>0.241042345276873</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.125</v>
+        <v>0.0759493670886076</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.02531645569620253</v>
       </c>
       <c r="P4">
-        <v>0.53125</v>
+        <v>0.6075949367088608</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.34375</v>
+        <v>0.2911392405063291</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05</v>
+        <v>0.04680851063829787</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.008333333333333333</v>
+        <v>0.00425531914893617</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.075</v>
+        <v>0.09148936170212765</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2583333333333334</v>
+        <v>0.2319148936170213</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.008333333333333333</v>
+        <v>0.0148936170212766</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.15</v>
+        <v>0.1574468085106383</v>
       </c>
       <c r="R6">
-        <v>0.075</v>
+        <v>0.06808510638297872</v>
       </c>
       <c r="S6">
-        <v>0.375</v>
+        <v>0.3851063829787234</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09905660377358491</v>
+        <v>0.1093023255813954</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01415094339622642</v>
+        <v>0.02093023255813953</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.07547169811320754</v>
+        <v>0.06046511627906977</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1084905660377359</v>
+        <v>0.1046511627906977</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.0330188679245283</v>
+        <v>0.02558139534883721</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1226415094339623</v>
+        <v>0.1581395348837209</v>
       </c>
       <c r="R7">
-        <v>0.06132075471698113</v>
+        <v>0.08372093023255814</v>
       </c>
       <c r="S7">
-        <v>0.4858490566037736</v>
+        <v>0.4372093023255814</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.06349206349206349</v>
+        <v>0.07861936720997123</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01587301587301587</v>
+        <v>0.01629913710450623</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.08333333333333333</v>
+        <v>0.07094918504314478</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1051587301587302</v>
+        <v>0.1112176414189837</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01785714285714286</v>
+        <v>0.01821668264621285</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1646825396825397</v>
+        <v>0.1658676893576222</v>
       </c>
       <c r="R8">
-        <v>0.1170634920634921</v>
+        <v>0.1045062320230105</v>
       </c>
       <c r="S8">
-        <v>0.4325396825396826</v>
+        <v>0.4343240651965484</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08379888268156424</v>
+        <v>0.07731958762886598</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0111731843575419</v>
+        <v>0.01288659793814433</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.03910614525139665</v>
+        <v>0.06958762886597938</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.106145251396648</v>
+        <v>0.09793814432989691</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01675977653631285</v>
+        <v>0.01288659793814433</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1843575418994413</v>
+        <v>0.2061855670103093</v>
       </c>
       <c r="R9">
-        <v>0.07262569832402235</v>
+        <v>0.08247422680412371</v>
       </c>
       <c r="S9">
-        <v>0.4860335195530726</v>
+        <v>0.4407216494845361</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.08076923076923077</v>
+        <v>0.08941176470588236</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01461538461538462</v>
+        <v>0.01843137254901961</v>
       </c>
       <c r="E10">
-        <v>0.001538461538461538</v>
+        <v>0.001568627450980392</v>
       </c>
       <c r="F10">
-        <v>0.06615384615384616</v>
+        <v>0.06784313725490196</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1130769230769231</v>
+        <v>0.1113725490196078</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01384615384615385</v>
+        <v>0.01215686274509804</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2169230769230769</v>
+        <v>0.2109803921568627</v>
       </c>
       <c r="R10">
-        <v>0.07153846153846154</v>
+        <v>0.08313725490196078</v>
       </c>
       <c r="S10">
-        <v>0.4215384615384615</v>
+        <v>0.4050980392156863</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1320224719101123</v>
+        <v>0.1341991341991342</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1179775280898876</v>
+        <v>0.1024531024531024</v>
       </c>
       <c r="K11">
-        <v>0.2134831460674157</v>
+        <v>0.2049062049062049</v>
       </c>
       <c r="L11">
-        <v>0.5252808988764045</v>
+        <v>0.5425685425685426</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01123595505617977</v>
+        <v>0.01587301587301587</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6927083333333334</v>
+        <v>0.7020725388601037</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2395833333333333</v>
+        <v>0.227979274611399</v>
       </c>
       <c r="K12">
-        <v>0.005208333333333333</v>
+        <v>0.01036269430051814</v>
       </c>
       <c r="L12">
-        <v>0.01041666666666667</v>
+        <v>0.0155440414507772</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.05208333333333334</v>
+        <v>0.04404145077720207</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7083333333333334</v>
+        <v>0.6893203883495146</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.25</v>
+        <v>0.2815533980582524</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.04166666666666666</v>
+        <v>0.02912621359223301</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02358490566037736</v>
+        <v>0.02669902912621359</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1745283018867924</v>
+        <v>0.1820388349514563</v>
       </c>
       <c r="I15">
-        <v>0.07547169811320754</v>
+        <v>0.07281553398058252</v>
       </c>
       <c r="J15">
-        <v>0.3113207547169811</v>
+        <v>0.3106796116504854</v>
       </c>
       <c r="K15">
-        <v>0.07547169811320754</v>
+        <v>0.0558252427184466</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.009433962264150943</v>
+        <v>0.01213592233009709</v>
       </c>
       <c r="N15">
-        <v>0.004716981132075472</v>
+        <v>0.002427184466019417</v>
       </c>
       <c r="O15">
-        <v>0.06132075471698113</v>
+        <v>0.04854368932038835</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2641509433962264</v>
+        <v>0.2888349514563107</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.007092198581560284</v>
+        <v>0.009375</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1702127659574468</v>
+        <v>0.19375</v>
       </c>
       <c r="I16">
-        <v>0.04964539007092199</v>
+        <v>0.053125</v>
       </c>
       <c r="J16">
-        <v>0.4042553191489361</v>
+        <v>0.390625</v>
       </c>
       <c r="K16">
-        <v>0.1063829787234043</v>
+        <v>0.115625</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02127659574468085</v>
+        <v>0.028125</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.0851063829787234</v>
+        <v>0.053125</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1560283687943262</v>
+        <v>0.15625</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.008771929824561403</v>
+        <v>0.00968783638320775</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1929824561403509</v>
+        <v>0.2055974165769645</v>
       </c>
       <c r="I17">
-        <v>0.1008771929824561</v>
+        <v>0.09149623250807319</v>
       </c>
       <c r="J17">
-        <v>0.4583333333333333</v>
+        <v>0.4348762109795479</v>
       </c>
       <c r="K17">
-        <v>0.07894736842105263</v>
+        <v>0.08073196986006459</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.0131578947368421</v>
+        <v>0.01506996770721206</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05263157894736842</v>
+        <v>0.05920344456404737</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09429824561403509</v>
+        <v>0.1033369214208827</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02590673575129534</v>
+        <v>0.02369668246445497</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2227979274611399</v>
+        <v>0.2061611374407583</v>
       </c>
       <c r="I18">
-        <v>0.05699481865284974</v>
+        <v>0.07582938388625593</v>
       </c>
       <c r="J18">
-        <v>0.4145077720207254</v>
+        <v>0.3981042654028436</v>
       </c>
       <c r="K18">
-        <v>0.09844559585492228</v>
+        <v>0.1113744075829384</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.005181347150259068</v>
+        <v>0.004739336492890996</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.002369668246445498</v>
       </c>
       <c r="O18">
-        <v>0.07772020725388601</v>
+        <v>0.07109004739336493</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.09844559585492228</v>
+        <v>0.1066350710900474</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02033660589060308</v>
+        <v>0.0161059413027917</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2208976157082749</v>
+        <v>0.2269148174659986</v>
       </c>
       <c r="I19">
-        <v>0.07012622720897616</v>
+        <v>0.08052970651395848</v>
       </c>
       <c r="J19">
-        <v>0.3450210378681627</v>
+        <v>0.3443092340730136</v>
       </c>
       <c r="K19">
-        <v>0.135343618513324</v>
+        <v>0.1309949892627058</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02664796633941094</v>
+        <v>0.02755905511811024</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.05890603085553997</v>
+        <v>0.05619183965640658</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1227208976157083</v>
+        <v>0.117394416607015</v>
       </c>
     </row>
   </sheetData>
